--- a/Data analysis R 20200203.xlsx
+++ b/Data analysis R 20200203.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thorveen/Dropbox/2020 S 2 Data analysis using R/5 syllabus and schedule/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KJD/Documents/Quest/Quest 2019-20/Class Document Spring 2020/2. R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317225B6-8AAD-F544-A3EE-2A44220A9827}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFE7569-03F2-7042-8739-5AE60E3AD566}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{2D1029E6-3F11-9444-ADB0-A8B843A09F58}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12760" windowHeight="16000" xr2:uid="{2D1029E6-3F11-9444-ADB0-A8B843A09F58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
   <si>
     <t>day</t>
   </si>
@@ -212,6 +212,66 @@
     <t>Big Data Challenge</t>
   </si>
   <si>
+    <t>intro stats &amp; R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+proposal discussions</t>
+  </si>
+  <si>
+    <t>advanced R</t>
+  </si>
+  <si>
+    <t>Two sample t-test and non-normal</t>
+  </si>
+  <si>
+    <t>anova-correaltion-regression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contingency analyses - normal distribution </t>
+  </si>
+  <si>
+    <t xml:space="preserve">probability - hypotheses - proportions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">binomial distributions - chi sqr </t>
+  </si>
+  <si>
+    <t>R - data structure - descriptive stats – data visualisation GitHub</t>
+  </si>
+  <si>
+    <t>Problem set 2, finish R workshop day 2, add to own R library, do ‘coin flip exercise’.
+Read day 3 lecture notes, Google style guide</t>
+  </si>
+  <si>
+    <t>Problem set 1, finish R workshop day 1, add to own R library
+Read day 2 lecture notes, Borer et al. 2009, browse Essentials of R language if you need R help.</t>
+  </si>
+  <si>
+    <t>Problem set 3, add to own R library, do ‘explore sampling apps’.
+Read day 4 lecture notes, Sullivan et al. 2012</t>
+  </si>
+  <si>
+    <t>Problem set 4, add to own R library, do ‘explore sampling apps Part 2’.
+Read day 5 lecture notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problem set 5, add to own R library,
+Read day 6 lecture notes, Zuur et al. 2012 </t>
+  </si>
+  <si>
+    <t>Read Reproducible-research-with-r-and-studio-2nd-edition Ch 1 and 2</t>
+  </si>
+  <si>
+    <t>reproducible science &amp; Rmarkdown</t>
+  </si>
+  <si>
+    <t>simulating data, advances visualisation</t>
+  </si>
+  <si>
+    <t>Read: syllabus, day 1 lecture notes (Moodle Lectures folder) and WS2_Ch01 and Ch02 (Readings folder)</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">3 Big Data Challange
 </t>
@@ -222,75 +282,30 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>(13:00)</t>
-    </r>
-  </si>
-  <si>
-    <t>intro stats &amp; R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-proposal discussions</t>
-  </si>
-  <si>
-    <t>advanced R</t>
-  </si>
-  <si>
-    <t>Two sample t-test and non-normal</t>
-  </si>
-  <si>
-    <t>anova-correaltion-regression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contingency analyses - normal distribution </t>
-  </si>
-  <si>
-    <t xml:space="preserve">probability - hypotheses - proportions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">binomial distributions - chi sqr </t>
-  </si>
-  <si>
-    <t>R - data structure - descriptive stats – data visualisation GitHub</t>
-  </si>
-  <si>
-    <t>Problem set 2, finish R workshop day 2, add to own R library, do ‘coin flip exercise’.
-Read day 3 lecture notes, Google style guide</t>
-  </si>
-  <si>
-    <t>Problem set 1, finish R workshop day 1, add to own R library
-Read day 2 lecture notes, Borer et al. 2009, browse Essentials of R language if you need R help.</t>
-  </si>
-  <si>
-    <t>Problem set 3, add to own R library, do ‘explore sampling apps’.
-Read day 4 lecture notes, Sullivan et al. 2012</t>
-  </si>
-  <si>
-    <t>Problem set 4, add to own R library, do ‘explore sampling apps Part 2’.
-Read day 5 lecture notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Problem set 5, add to own R library,
-Read day 6 lecture notes, Zuur et al. 2012 </t>
-  </si>
-  <si>
-    <t>Read Reproducible-research-with-r-and-studio-2nd-edition Ch 1 and 2</t>
-  </si>
-  <si>
-    <t>reproducible science &amp; Rmarkdown</t>
-  </si>
-  <si>
-    <t>simulating data, advances visualisation</t>
-  </si>
-  <si>
-    <t>Read: syllabus, day 1 lecture notes (Moodle Lectures folder) and WS2_Ch01 and Ch02 (Readings folder)</t>
+      <t xml:space="preserve">(13:00)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Determine how sediment will be included-&gt;upload plots due at 11:59pm</t>
+    </r>
+  </si>
+  <si>
+    <t>Complete MANCOVA assumption tests DUE at 9pm</t>
+  </si>
+  <si>
+    <t>MANCOVA, regression, Shapiro-Wilks due at 11:59pm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -330,6 +345,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="7">
@@ -749,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6616A2-B7DC-454B-BAE0-420A32DC7FD7}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="75" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -807,7 +827,7 @@
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="86" customHeight="1">
@@ -821,13 +841,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="60" customHeight="1">
@@ -842,10 +862,10 @@
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>16</v>
@@ -863,10 +883,10 @@
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>17</v>
@@ -884,10 +904,10 @@
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>19</v>
@@ -905,10 +925,10 @@
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>20</v>
@@ -948,10 +968,10 @@
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>18</v>
@@ -968,10 +988,10 @@
         <v>11</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>22</v>
@@ -989,7 +1009,7 @@
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1056,7 +1076,7 @@
       </c>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" spans="1:8" ht="34">
+    <row r="19" spans="1:8" ht="68">
       <c r="A19" s="7">
         <v>11</v>
       </c>
@@ -1070,10 +1090,10 @@
         <v>14</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1087,6 +1107,9 @@
         <v>19</v>
       </c>
       <c r="D20" s="16"/>
+      <c r="H20" s="7" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="7">
@@ -1099,6 +1122,9 @@
         <v>20</v>
       </c>
       <c r="D21" s="16"/>
+      <c r="H21" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="34">
       <c r="A22" s="7">
